--- a/Aula004/exercicios/ex004/exercicio4_parcelas.xlsx
+++ b/Aula004/exercicios/ex004/exercicio4_parcelas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gustavo\BCD\Aula004\exercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gustavo\BCD\Aula004\exercicios\ex004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA5E7B2-B7F8-4621-B844-C8ACF57B500F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83516CB0-12D0-4975-A7FE-EEDEBA63FBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3" xr2:uid="{68435E5F-DC9A-48F7-82EF-04866506E219}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{68435E5F-DC9A-48F7-82EF-04866506E219}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="72">
   <si>
     <t>cod_cli</t>
   </si>
@@ -241,12 +241,18 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>rua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,10 +290,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,26 +615,26 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" customWidth="1"/>
-    <col min="8" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -727,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -777,7 +784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -827,7 +834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -877,7 +884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -927,7 +934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -977,7 +984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1027,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1077,7 +1084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1127,7 +1134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1377,7 +1384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1427,7 +1434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1527,7 +1534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1577,7 +1584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1627,7 +1634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1677,7 +1684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1727,7 +1734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1777,7 +1784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1827,7 +1834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1877,7 +1884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1927,7 +1934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1977,7 +1984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2027,7 +2034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -2077,7 +2084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
@@ -2127,7 +2134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -2187,30 +2194,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA17102A-6B77-4A13-8C10-11209A617B4B}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>67</v>
@@ -2236,7 +2243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2262,7 +2269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2288,7 +2295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2314,7 +2321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2360,7 +2367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2383,7 +2390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2417,29 +2424,29 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" customWidth="1"/>
-    <col min="8" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -2450,7 +2457,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2461,7 +2468,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -2469,7 +2479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2480,7 +2490,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -2488,7 +2501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2499,7 +2512,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2518,7 +2534,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2526,7 +2545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2537,7 +2556,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2556,7 +2578,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2589,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -2575,7 +2600,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -2593,30 +2621,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4568E9-9F66-480A-AFBA-160DD703A349}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -2639,20 +2667,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>44724</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>44754</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>44754</v>
       </c>
       <c r="F2" t="s">
@@ -2662,20 +2690,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>44724</v>
       </c>
-      <c r="D3" s="1">
-        <v>44784</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="3">
+        <v>44784</v>
+      </c>
+      <c r="E3" s="3">
         <v>44784</v>
       </c>
       <c r="F3" t="s">
@@ -2685,20 +2713,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>44754</v>
       </c>
-      <c r="D4" s="1">
-        <v>44784</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="3">
+        <v>44784</v>
+      </c>
+      <c r="E4" s="3">
         <v>44774</v>
       </c>
       <c r="F4" t="s">
@@ -2708,20 +2736,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>44754</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>44814</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
@@ -2731,20 +2759,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>44754</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>44844</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
@@ -2754,20 +2782,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>44664</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>44694</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>44694</v>
       </c>
       <c r="F7" t="s">
@@ -2777,20 +2805,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>44664</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>44724</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>44724</v>
       </c>
       <c r="F8" t="s">
@@ -2800,20 +2828,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>44664</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>44754</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>44754</v>
       </c>
       <c r="F9" t="s">
@@ -2823,20 +2851,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>44664</v>
       </c>
-      <c r="D10" s="1">
-        <v>44784</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="3">
+        <v>44784</v>
+      </c>
+      <c r="E10" s="3">
         <v>44784</v>
       </c>
       <c r="F10" t="s">
@@ -2846,20 +2874,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D11" s="3">
         <v>44814</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
@@ -2869,20 +2897,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D12" s="3">
         <v>44844</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F12" t="s">
@@ -2892,20 +2920,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D13" s="3">
         <v>44874</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
@@ -2915,20 +2943,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D14" s="3">
         <v>44814</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
@@ -2938,20 +2966,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D15" s="3">
         <v>44844</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F15" t="s">
@@ -2961,20 +2989,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D16" s="3">
         <v>44874</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
@@ -2984,20 +3012,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D17" s="3">
         <v>44814</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
@@ -3007,20 +3035,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D18" s="3">
         <v>44844</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F18" t="s">
@@ -3030,20 +3058,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D19" s="3">
         <v>44874</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
@@ -3053,20 +3081,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D20" s="3">
         <v>44814</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F20" t="s">
@@ -3076,20 +3104,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D21" s="3">
         <v>44844</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
@@ -3099,20 +3127,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D22" s="3">
         <v>44874</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F22" t="s">
@@ -3122,20 +3150,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D23" s="3">
         <v>44814</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F23" t="s">
@@ -3145,20 +3173,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D24" s="3">
         <v>44844</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
@@ -3168,20 +3196,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
-        <v>44784</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="3">
+        <v>44784</v>
+      </c>
+      <c r="D25" s="3">
         <v>44874</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F25" t="s">
